--- a/pred_ohlcv/54/2019-10-16 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-16 CHR ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -426,7 +431,10 @@
         <v>31.54333333333335</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -452,7 +460,10 @@
         <v>31.57166666666668</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -478,6 +489,9 @@
         <v>31.61833333333335</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -504,6 +518,9 @@
         <v>31.64500000000002</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -530,7 +547,10 @@
         <v>31.68833333333335</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +576,10 @@
         <v>31.72166666666669</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -582,6 +605,9 @@
         <v>31.76500000000002</v>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -608,6 +634,9 @@
         <v>31.80166666666669</v>
       </c>
       <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -634,6 +663,9 @@
         <v>31.83833333333336</v>
       </c>
       <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -660,6 +692,9 @@
         <v>31.87833333333336</v>
       </c>
       <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -686,6 +721,9 @@
         <v>31.89000000000003</v>
       </c>
       <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -712,6 +750,9 @@
         <v>31.93500000000002</v>
       </c>
       <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -738,6 +779,9 @@
         <v>31.97833333333335</v>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -764,6 +808,9 @@
         <v>32.02166666666668</v>
       </c>
       <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -790,6 +837,9 @@
         <v>32.06500000000002</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -816,6 +866,9 @@
         <v>32.10500000000001</v>
       </c>
       <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -842,6 +895,9 @@
         <v>32.13833333333335</v>
       </c>
       <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -868,6 +924,9 @@
         <v>32.16500000000001</v>
       </c>
       <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -894,6 +953,9 @@
         <v>32.19166666666668</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -920,6 +982,9 @@
         <v>32.21833333333334</v>
       </c>
       <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -946,6 +1011,9 @@
         <v>32.24000000000002</v>
       </c>
       <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -972,6 +1040,9 @@
         <v>32.25833333333335</v>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -998,6 +1069,9 @@
         <v>32.27666666666668</v>
       </c>
       <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1024,6 +1098,9 @@
         <v>32.29500000000001</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1050,552 +1127,9 @@
         <v>32.30166666666668</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>31</v>
-      </c>
-      <c r="C27" t="n">
-        <v>31</v>
-      </c>
-      <c r="D27" t="n">
-        <v>31</v>
-      </c>
-      <c r="E27" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F27" t="n">
-        <v>38725.8486</v>
-      </c>
-      <c r="G27" t="n">
-        <v>32.30666666666668</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C28" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D28" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E28" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F28" t="n">
-        <v>9409.6096</v>
-      </c>
-      <c r="G28" t="n">
-        <v>32.30000000000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D29" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="E29" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>79914.15640000001</v>
-      </c>
-      <c r="G29" t="n">
-        <v>32.31500000000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="C30" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="E30" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="F30" t="n">
-        <v>17447.9721</v>
-      </c>
-      <c r="G30" t="n">
-        <v>32.31166666666668</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="C31" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D31" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="E31" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>12138.7506</v>
-      </c>
-      <c r="G31" t="n">
-        <v>32.31166666666668</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="C32" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D32" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="E32" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2394</v>
-      </c>
-      <c r="G32" t="n">
-        <v>32.26500000000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="C33" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D33" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="E33" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F33" t="n">
-        <v>11336.5217</v>
-      </c>
-      <c r="G33" t="n">
-        <v>32.22166666666668</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C34" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="E34" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F34" t="n">
-        <v>410</v>
-      </c>
-      <c r="G34" t="n">
-        <v>32.18500000000002</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C35" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D35" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E35" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F35" t="n">
-        <v>74.7762</v>
-      </c>
-      <c r="G35" t="n">
-        <v>32.14666666666668</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="C36" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D36" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="E36" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="F36" t="n">
-        <v>30</v>
-      </c>
-      <c r="G36" t="n">
-        <v>32.13000000000002</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="C37" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D37" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="E37" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F37" t="n">
-        <v>69.649</v>
-      </c>
-      <c r="G37" t="n">
-        <v>32.10000000000002</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="C38" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D38" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="E38" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F38" t="n">
-        <v>20</v>
-      </c>
-      <c r="G38" t="n">
-        <v>32.07833333333335</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="C39" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D39" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F39" t="n">
-        <v>22227.0651</v>
-      </c>
-      <c r="G39" t="n">
-        <v>32.05333333333335</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C40" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D40" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E40" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F40" t="n">
-        <v>6475.9302</v>
-      </c>
-      <c r="G40" t="n">
-        <v>32.02166666666668</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="C41" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="D41" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="E41" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>78.70659999999999</v>
-      </c>
-      <c r="G41" t="n">
-        <v>32.00666666666669</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>31</v>
-      </c>
-      <c r="C42" t="n">
-        <v>31</v>
-      </c>
-      <c r="D42" t="n">
-        <v>31</v>
-      </c>
-      <c r="E42" t="n">
-        <v>31</v>
-      </c>
-      <c r="F42" t="n">
-        <v>14477.7553</v>
-      </c>
-      <c r="G42" t="n">
-        <v>31.98333333333335</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>31</v>
-      </c>
-      <c r="C43" t="n">
-        <v>31</v>
-      </c>
-      <c r="D43" t="n">
-        <v>31</v>
-      </c>
-      <c r="E43" t="n">
-        <v>31</v>
-      </c>
-      <c r="F43" t="n">
-        <v>11218.5314</v>
-      </c>
-      <c r="G43" t="n">
-        <v>31.95833333333335</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="C44" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="D44" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="E44" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="F44" t="n">
-        <v>30</v>
-      </c>
-      <c r="G44" t="n">
-        <v>31.94833333333335</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>31</v>
-      </c>
-      <c r="C45" t="n">
-        <v>31</v>
-      </c>
-      <c r="D45" t="n">
-        <v>31</v>
-      </c>
-      <c r="E45" t="n">
-        <v>31</v>
-      </c>
-      <c r="F45" t="n">
-        <v>6459.7404</v>
-      </c>
-      <c r="G45" t="n">
-        <v>31.94000000000002</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>31</v>
-      </c>
-      <c r="C46" t="n">
-        <v>31</v>
-      </c>
-      <c r="D46" t="n">
-        <v>31</v>
-      </c>
-      <c r="E46" t="n">
-        <v>31</v>
-      </c>
-      <c r="F46" t="n">
-        <v>4355.9479</v>
-      </c>
-      <c r="G46" t="n">
-        <v>31.91666666666668</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C47" t="n">
-        <v>31</v>
-      </c>
-      <c r="D47" t="n">
-        <v>31</v>
-      </c>
-      <c r="E47" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F47" t="n">
-        <v>13016.5853</v>
-      </c>
-      <c r="G47" t="n">
-        <v>31.90166666666668</v>
-      </c>
-      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
